--- a/doc/2.xlsx
+++ b/doc/2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3150" yWindow="2310" windowWidth="21600" windowHeight="11295" activeTab="2"/>
+    <workbookView xWindow="3150" yWindow="2310" windowWidth="21600" windowHeight="11295" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>улучшеный фибоначи</t>
   </si>
   <si>
-    <t>наивный</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -63,9 +60,6 @@
   </si>
   <si>
     <t>НОД</t>
-  </si>
-  <si>
-    <t>Евклид</t>
   </si>
   <si>
     <r>
@@ -154,6 +148,12 @@
   <si>
     <t>fun</t>
   </si>
+  <si>
+    <t>НОД Евклид</t>
+  </si>
+  <si>
+    <t>наивный фибоначчи</t>
+  </si>
 </sst>
 </file>
 
@@ -234,9 +234,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -267,6 +264,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -419,7 +419,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>наивный</c:v>
+                  <c:v>наивный фибоначчи</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -516,11 +516,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1190963760"/>
-        <c:axId val="1190966480"/>
+        <c:axId val="-1310088608"/>
+        <c:axId val="-1310084256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1190963760"/>
+        <c:axId val="-1310088608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -563,7 +563,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1190966480"/>
+        <c:crossAx val="-1310084256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -571,7 +571,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1190966480"/>
+        <c:axId val="-1310084256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.5000000000000015E-4"/>
@@ -637,7 +637,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1190963760"/>
+        <c:crossAx val="-1310088608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -859,7 +859,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>наивный</c:v>
+                  <c:v>наивный фибоначчи</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -956,11 +956,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1155057024"/>
-        <c:axId val="1166140960"/>
+        <c:axId val="-1310089152"/>
+        <c:axId val="-1310082080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1155057024"/>
+        <c:axId val="-1310089152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1003,7 +1003,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1166140960"/>
+        <c:crossAx val="-1310082080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1011,7 +1011,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1166140960"/>
+        <c:axId val="-1310082080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.5000000000000014E-3"/>
@@ -1077,7 +1077,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1155057024"/>
+        <c:crossAx val="-1310089152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1262,7 +1262,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Евклид</c:v>
+                  <c:v>НОД Евклид</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1330,11 +1330,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1166133888"/>
-        <c:axId val="1166139872"/>
+        <c:axId val="-1310091872"/>
+        <c:axId val="-1310088064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1166133888"/>
+        <c:axId val="-1310091872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1377,7 +1377,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1166139872"/>
+        <c:crossAx val="-1310088064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1385,7 +1385,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1166139872"/>
+        <c:axId val="-1310088064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1436,7 +1436,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1166133888"/>
+        <c:crossAx val="-1310091872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3602,7 +3602,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3611,13 +3611,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2">
@@ -3664,7 +3665,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1">
         <v>2.3148148148148147E-5</v>
@@ -3676,18 +3677,18 @@
         <v>4.1203703703703706E-3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -3699,8 +3700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3710,32 +3711,32 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="5">
         <v>1.0416666666666667E-4</v>
@@ -3752,7 +3753,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B4" s="5">
         <v>1.1574074074074073E-5</v>
@@ -3777,7 +3778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15:D15"/>
     </sheetView>
   </sheetViews>
@@ -3793,7 +3794,7 @@
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" s="9">
         <v>100</v>
@@ -3810,7 +3811,7 @@
       <c r="G2" s="9">
         <v>10000</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2" s="14">
         <f>SUM(C2:G2)</f>
         <v>18100</v>
       </c>
@@ -3821,24 +3822,24 @@
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="11">
+        <v>13</v>
+      </c>
+      <c r="C3" s="10">
         <v>6.9444444444444444E-5</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>1.9675925925925926E-4</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>1.0416666666666667E-4</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <v>4.6296296296296294E-5</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="10">
         <v>1.1574074074074073E-4</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="19">
         <f>SUM(C3:G3)</f>
         <v>5.3240740740740744E-4</v>
       </c>
@@ -3848,66 +3849,66 @@
       <c r="L3" s="8"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="17">
+      <c r="B4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="16">
         <f>POWER(C2,2)</f>
         <v>10000</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="16">
         <f>POWER(D2,2)</f>
         <v>1000000</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="16">
         <f>POWER(E2,2)</f>
         <v>4000000</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="16">
         <f>POWER(F2,2)</f>
         <v>25000000</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="16">
         <f>POWER(G2,2)</f>
         <v>100000000</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="17">
         <f>SUM(C4:G4)</f>
         <v>130010000</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="14">
+      <c r="B5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="13">
         <f>C2*C9</f>
         <v>1.5046296296296297E-2</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <f>D2*D9</f>
         <v>5.7870370370370364E-2</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="13">
         <f>E2*E9</f>
         <v>0.41666666666666669</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="13">
         <f>F2*F9</f>
         <v>0.40509259259259256</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="13">
         <f>G2*G9</f>
         <v>1.3888888888888888</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="19">
         <f t="shared" ref="H5" si="0">SUM(C5:G5)</f>
         <v>2.2835648148148149</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" s="9">
         <v>100</v>
@@ -3924,111 +3925,111 @@
       <c r="G8" s="9">
         <v>10000</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="14">
         <f>SUM(C8:G8)</f>
         <v>18100</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="11">
+        <v>16</v>
+      </c>
+      <c r="C9" s="10">
         <v>1.5046296296296297E-4</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>5.7870370370370366E-5</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>2.0833333333333335E-4</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>8.1018518518518516E-5</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="10">
         <v>1.3888888888888889E-4</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="15">
         <f>SUM(C9:G9)</f>
         <v>6.3657407407407413E-4</v>
       </c>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="17">
+      <c r="B10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="16">
         <f>POWER(C8,2)</f>
         <v>10000</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="16">
         <f>POWER(D8,2)</f>
         <v>1000000</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="16">
         <f>POWER(E8,2)</f>
         <v>4000000</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="16">
         <f>POWER(F8,2)</f>
         <v>25000000</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="16">
         <f>POWER(G8,2)</f>
         <v>100000000</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="17">
         <f>SUM(C10:G10)</f>
         <v>130010000</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="19">
+      <c r="B11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="18">
         <f>C8*C9</f>
         <v>1.5046296296296297E-2</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="18">
         <f t="shared" ref="D11:G11" si="1">D8*D9</f>
         <v>5.7870370370370364E-2</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="18">
         <f t="shared" si="1"/>
         <v>0.41666666666666669</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="18">
         <f t="shared" si="1"/>
         <v>0.40509259259259256</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="18">
         <f t="shared" si="1"/>
         <v>1.3888888888888888</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="18">
         <f>SUM(C11:G11)</f>
         <v>2.2835648148148149</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="O14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q14" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="P14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q14" s="8" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
@@ -4038,7 +4039,7 @@
       <c r="C15" s="7">
         <v>2.4415178112232768E-12</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="11">
         <f>B15*$H$4+$H$2*C15</f>
         <v>2.2799999999999994</v>
       </c>
